--- a/artfynd/A 27850-2021.xlsx
+++ b/artfynd/A 27850-2021.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>720065.5609848015</v>
+        <v>720066</v>
       </c>
       <c r="R2" t="n">
-        <v>7059966.672284196</v>
+        <v>7059967</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>

--- a/artfynd/A 27850-2021.xlsx
+++ b/artfynd/A 27850-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112024677</v>
       </c>
       <c r="B2" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 27850-2021.xlsx
+++ b/artfynd/A 27850-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112024677</v>
       </c>
       <c r="B2" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
